--- a/medicine/Médecine vétérinaire/Duncan_McNab_McEachran/Duncan_McNab_McEachran.xlsx
+++ b/medicine/Médecine vétérinaire/Duncan_McNab_McEachran/Duncan_McNab_McEachran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Duncan McNab McEachran, né le 27 octobre 1841 et décédé le 13 octobre 1924, est un vétérinaire, éleveur et universitaire canadien originaire d'Écosse.
 </t>
@@ -511,18 +523,160 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Campbeltown, en Écosse, il est le fils de David McEachran et de Jean Blackney.
-Formation
-Il entre à l'Edinburgh Veterinary College en 1858 et en est diplômé en 1861. Il reçoit son permis d'exercice du Royal College of Veterinary Surgeons[1].
-Émigration au Canada et enseignement
-En 1862, il émigre au Canada et s'installe à Woodstock où il exerce. En 1863, il aide Andrew Smith à fonder à Toronto l'Upper Canada Veterinary School (devenu plus tard l'Ontario Veterinary College) où il enseigne. McEachran quitte l'établissement après trois ans, en raison d'un conflit sur les conditions d'admission de l'établissement[2], et s'installe à Montréal pour y exercer. En 1867, il publie avec Smith le premier manuel vétérinaire au Canada destiné aux agriculteurs, The Canadian horse and his diseases[3].
-Fondation du Montreal Veterinary College
-En 1866, McEachran participe à la création du Montreal Veterinary College, rattaché à l'Université McGill à partir de 1889. Une section francophone ouvre en 1877. L'institution devient plus tard la Faculté de médecine comparée et des sciences vétérinaires de l'Université McGill[3].
-McEachran participe à l'élaboration de mesures sanitaires pour lutter contre les épidémies chez les animaux et effectue de nombreux voyages aux États-Unis pour en étudier la prévention et le traitement notamment chez les chevaux. En 1885, il devient le premier inspecteur vétérinaire en chef au Canada. À la fin des années 1880, il aide à établir deux grands ranchs d'élevage de chevaux en Alberta, puis assure la gestion d'autres ranchs depuis sa maison de Montréal [4],[3].
-Fin de vie
-Il meurt d'une crise cardiaque, après deux années de maladie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Duncan_McNab_McEachran</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Duncan_McNab_McEachran</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il entre à l'Edinburgh Veterinary College en 1858 et en est diplômé en 1861. Il reçoit son permis d'exercice du Royal College of Veterinary Surgeons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Duncan_McNab_McEachran</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Duncan_McNab_McEachran</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Émigration au Canada et enseignement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1862, il émigre au Canada et s'installe à Woodstock où il exerce. En 1863, il aide Andrew Smith à fonder à Toronto l'Upper Canada Veterinary School (devenu plus tard l'Ontario Veterinary College) où il enseigne. McEachran quitte l'établissement après trois ans, en raison d'un conflit sur les conditions d'admission de l'établissement, et s'installe à Montréal pour y exercer. En 1867, il publie avec Smith le premier manuel vétérinaire au Canada destiné aux agriculteurs, The Canadian horse and his diseases.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Duncan_McNab_McEachran</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Duncan_McNab_McEachran</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fondation du Montreal Veterinary College</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1866, McEachran participe à la création du Montreal Veterinary College, rattaché à l'Université McGill à partir de 1889. Une section francophone ouvre en 1877. L'institution devient plus tard la Faculté de médecine comparée et des sciences vétérinaires de l'Université McGill.
+McEachran participe à l'élaboration de mesures sanitaires pour lutter contre les épidémies chez les animaux et effectue de nombreux voyages aux États-Unis pour en étudier la prévention et le traitement notamment chez les chevaux. En 1885, il devient le premier inspecteur vétérinaire en chef au Canada. À la fin des années 1880, il aide à établir deux grands ranchs d'élevage de chevaux en Alberta, puis assure la gestion d'autres ranchs depuis sa maison de Montréal ,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Duncan_McNab_McEachran</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Duncan_McNab_McEachran</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fin de vie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il meurt d'une crise cardiaque, après deux années de maladie.
 </t>
         </is>
       </c>
